--- a/data_processed/20250620/BTCUSDVOLSURFACE_REGULARIZED_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDVOLSURFACE_REGULARIZED_20250620.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14326,7 +14326,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14355,7 +14355,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14848,7 +14848,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15051,7 +15051,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15312,7 +15312,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15834,7 +15834,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16095,7 +16095,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16240,7 +16240,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16298,7 +16298,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16327,7 +16327,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16414,7 +16414,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16617,7 +16617,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16704,7 +16704,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17226,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17255,7 +17255,7 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17371,7 +17371,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17661,7 +17661,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17748,7 +17748,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17806,7 +17806,7 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17893,7 +17893,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17922,7 +17922,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17951,7 +17951,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -17980,7 +17980,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18038,7 +18038,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18067,7 +18067,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18270,7 +18270,7 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18415,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18444,7 +18444,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24235,7 +24235,7 @@
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24264,7 +24264,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="G876" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="G880" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="G884" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24554,7 +24554,7 @@
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24583,7 +24583,7 @@
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24670,7 +24670,7 @@
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -24844,7 +24844,7 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29924,7 +29924,7 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="G1099" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35130,7 +35130,7 @@
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -51001,7 +51001,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51055,7 +51055,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -51471,7 +51471,7 @@
       </c>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51703,7 +51703,7 @@
       </c>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -51761,7 +51761,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -51906,7 +51906,7 @@
       </c>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -52072,7 +52072,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -52937,7 +52937,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -53382,7 +53382,7 @@
       </c>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53440,7 +53440,7 @@
       </c>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53614,7 +53614,7 @@
       </c>
       <c r="G2029" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53672,7 +53672,7 @@
       </c>
       <c r="G2031" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -53701,7 +53701,7 @@
       </c>
       <c r="G2032" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -53817,7 +53817,7 @@
       </c>
       <c r="G2036" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54441,7 +54441,7 @@
       </c>
       <c r="G2060" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54470,7 +54470,7 @@
       </c>
       <c r="G2061" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -54499,7 +54499,7 @@
       </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54557,7 +54557,7 @@
       </c>
       <c r="G2064" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54615,7 +54615,7 @@
       </c>
       <c r="G2066" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54673,7 +54673,7 @@
       </c>
       <c r="G2068" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -54702,7 +54702,7 @@
       </c>
       <c r="G2069" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="G2100" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -55575,7 +55575,7 @@
       </c>
       <c r="G2102" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -55662,7 +55662,7 @@
       </c>
       <c r="G2105" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -55691,7 +55691,7 @@
       </c>
       <c r="G2106" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -56465,7 +56465,7 @@
       </c>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -56494,7 +56494,7 @@
       </c>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -56523,7 +56523,7 @@
       </c>
       <c r="G2138" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -56552,7 +56552,7 @@
       </c>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -56581,7 +56581,7 @@
       </c>
       <c r="G2140" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -56610,7 +56610,7 @@
       </c>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -56718,7 +56718,7 @@
       </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250620/BTCUSDVOLSURFACE_REGULARIZED_20250620.xlsx
+++ b/data_processed/20250620/BTCUSDVOLSURFACE_REGULARIZED_20250620.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -24467,7 +24467,7 @@
       </c>
       <c r="G882" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="G892" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -24844,7 +24844,7 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -29924,7 +29924,7 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="G1099" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35130,7 +35130,7 @@
       </c>
       <c r="G1301" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -51001,7 +51001,7 @@
       </c>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -51055,7 +51055,7 @@
       </c>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -51761,7 +51761,7 @@
       </c>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -52072,7 +52072,7 @@
       </c>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -52937,7 +52937,7 @@
       </c>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -53382,7 +53382,7 @@
       </c>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -53440,7 +53440,7 @@
       </c>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -53614,7 +53614,7 @@
       </c>
       <c r="G2029" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -53672,7 +53672,7 @@
       </c>
       <c r="G2031" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -53817,7 +53817,7 @@
       </c>
       <c r="G2036" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54441,7 +54441,7 @@
       </c>
       <c r="G2060" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54499,7 +54499,7 @@
       </c>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54557,7 +54557,7 @@
       </c>
       <c r="G2064" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54615,7 +54615,7 @@
       </c>
       <c r="G2066" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54673,7 +54673,7 @@
       </c>
       <c r="G2068" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -54702,7 +54702,7 @@
       </c>
       <c r="G2069" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -55517,7 +55517,7 @@
       </c>
       <c r="G2100" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -55662,7 +55662,7 @@
       </c>
       <c r="G2105" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -55691,7 +55691,7 @@
       </c>
       <c r="G2106" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -56465,7 +56465,7 @@
       </c>
       <c r="G2136" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -56552,7 +56552,7 @@
       </c>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -56610,7 +56610,7 @@
       </c>
       <c r="G2141" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -56718,7 +56718,7 @@
       </c>
       <c r="G2145" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
